--- a/gameservicedemo/src/main/resources/game_configuration_excel/scene.xlsx
+++ b/gameservicedemo/src/main/resources/game_configuration_excel/scene.xlsx
@@ -43,7 +43,7 @@
     <t>起始之地</t>
   </si>
   <si>
-    <t>1,2,3,4,5,6,</t>
+    <t>1,2,3,4,5,6,10,12,13,10,14</t>
   </si>
   <si>
     <t>英雄的出生之地，万物起源</t>
@@ -64,7 +64,7 @@
     <t>森林</t>
   </si>
   <si>
-    <t>4,6,2,20,22</t>
+    <t>4,6,2,20,22,11</t>
   </si>
   <si>
     <t>丛林之地</t>
@@ -73,7 +73,7 @@
     <t>城堡</t>
   </si>
   <si>
-    <t>7,23</t>
+    <t>7,23,14</t>
   </si>
   <si>
     <t>王的领地</t>
@@ -96,10 +96,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -121,6 +121,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -128,14 +142,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,8 +208,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,90 +263,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -273,187 +273,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,15 +464,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -494,30 +485,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -526,10 +493,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -550,6 +515,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -564,6 +538,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -572,145 +572,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1044,10 +1044,13 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="7"/>
+  <cols>
+    <col min="6" max="6" width="19.6666666666667" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">

--- a/gameservicedemo/src/main/resources/game_configuration_excel/scene.xlsx
+++ b/gameservicedemo/src/main/resources/game_configuration_excel/scene.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>ID</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>16,21</t>
+  </si>
+  <si>
+    <t>冥府</t>
+  </si>
+  <si>
+    <t>死亡后暂留</t>
   </si>
 </sst>
 </file>
@@ -121,6 +127,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -128,35 +187,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,7 +232,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,7 +240,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,73 +256,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -273,19 +279,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,13 +429,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,145 +459,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,6 +470,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -478,24 +508,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,6 +532,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,21 +570,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -572,145 +578,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1041,13 +1047,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
     <col min="6" max="6" width="19.6666666666667" customWidth="1"/>
   </cols>
@@ -1222,6 +1228,29 @@
         <v>360000</v>
       </c>
     </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/gameservicedemo/src/main/resources/game_configuration_excel/scene.xlsx
+++ b/gameservicedemo/src/main/resources/game_configuration_excel/scene.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>ID</t>
   </si>
@@ -82,13 +82,10 @@
     <t>副本-冰冠堡垒</t>
   </si>
   <si>
-    <t>18,19,20</t>
+    <t>16,18</t>
   </si>
   <si>
     <t>副本-黑石塔</t>
-  </si>
-  <si>
-    <t>16,21</t>
   </si>
   <si>
     <t>冥府</t>
@@ -102,10 +99,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -126,8 +123,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,7 +140,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,7 +148,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,6 +167,50 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -172,13 +222,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -186,24 +252,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,60 +262,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,31 +276,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,151 +438,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,10 +470,69 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -497,21 +553,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -526,50 +567,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -578,10 +575,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -590,133 +587,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1050,7 +1047,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="7"/>
@@ -1205,7 +1202,7 @@
         <v>22</v>
       </c>
       <c r="G6">
-        <v>360000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1222,10 +1219,10 @@
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G7">
-        <v>360000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1233,22 +1230,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
         <v>25</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/gameservicedemo/src/main/resources/game_configuration_excel/scene.xlsx
+++ b/gameservicedemo/src/main/resources/game_configuration_excel/scene.xlsx
@@ -101,8 +101,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -123,9 +123,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,39 +145,108 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,74 +266,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -276,19 +276,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,13 +408,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,49 +420,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,91 +456,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,45 +467,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -522,17 +483,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -553,6 +503,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -567,6 +552,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -575,10 +575,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -587,7 +587,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -596,124 +596,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1047,7 +1047,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="7"/>
@@ -1202,7 +1202,7 @@
         <v>22</v>
       </c>
       <c r="G6">
-        <v>20000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1222,7 +1222,7 @@
         <v>22</v>
       </c>
       <c r="G7">
-        <v>20000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="8" spans="1:8">
